--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agt-Agtr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agt-Agtr1a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02619133333333333</v>
+        <v>0.07702833333333334</v>
       </c>
       <c r="H2">
-        <v>0.078574</v>
+        <v>0.231085</v>
       </c>
       <c r="I2">
-        <v>0.00783286589743605</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="J2">
-        <v>0.007832865897436052</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.5610396666666666</v>
+        <v>0.6100786666666667</v>
       </c>
       <c r="N2">
-        <v>1.683119</v>
+        <v>1.830236</v>
       </c>
       <c r="O2">
-        <v>0.04888859506813144</v>
+        <v>0.06402955811028149</v>
       </c>
       <c r="P2">
-        <v>0.04888859506813144</v>
+        <v>0.06402955811028149</v>
       </c>
       <c r="Q2">
-        <v>0.01469437692288889</v>
+        <v>0.04699334289555556</v>
       </c>
       <c r="R2">
-        <v>0.132249392306</v>
+        <v>0.42294008606</v>
       </c>
       <c r="S2">
-        <v>0.000382937809082727</v>
+        <v>0.001446451096594831</v>
       </c>
       <c r="T2">
-        <v>0.0003829378090827271</v>
+        <v>0.001446451096594831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02619133333333333</v>
+        <v>0.07702833333333334</v>
       </c>
       <c r="H3">
-        <v>0.078574</v>
+        <v>0.231085</v>
       </c>
       <c r="I3">
-        <v>0.00783286589743605</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="J3">
-        <v>0.007832865897436052</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.236132333333334</v>
+        <v>7.236132333333333</v>
       </c>
       <c r="N3">
         <v>21.708397</v>
       </c>
       <c r="O3">
-        <v>0.630551393283089</v>
+        <v>0.7594534623909487</v>
       </c>
       <c r="P3">
-        <v>0.6305513932830891</v>
+        <v>0.7594534623909487</v>
       </c>
       <c r="Q3">
-        <v>0.1895239539864444</v>
+        <v>0.5573872134161111</v>
       </c>
       <c r="R3">
-        <v>1.705715585878</v>
+        <v>5.016484920745</v>
       </c>
       <c r="S3">
-        <v>0.004939024505027895</v>
+        <v>0.01715633101193832</v>
       </c>
       <c r="T3">
-        <v>0.004939024505027896</v>
+        <v>0.01715633101193832</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02619133333333333</v>
+        <v>0.07702833333333334</v>
       </c>
       <c r="H4">
-        <v>0.078574</v>
+        <v>0.231085</v>
       </c>
       <c r="I4">
-        <v>0.00783286589743605</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="J4">
-        <v>0.007832865897436052</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.678708333333333</v>
+        <v>1.681867666666667</v>
       </c>
       <c r="N4">
-        <v>11.036125</v>
+        <v>5.045603</v>
       </c>
       <c r="O4">
-        <v>0.3205600116487795</v>
+        <v>0.1765169794987699</v>
       </c>
       <c r="P4">
-        <v>0.3205600116487795</v>
+        <v>0.1765169794987699</v>
       </c>
       <c r="Q4">
-        <v>0.09635027619444445</v>
+        <v>0.1295514632505556</v>
       </c>
       <c r="R4">
-        <v>0.86715248575</v>
+        <v>1.165963169255</v>
       </c>
       <c r="S4">
-        <v>0.002510903583325428</v>
+        <v>0.003987583017890681</v>
       </c>
       <c r="T4">
-        <v>0.002510903583325429</v>
+        <v>0.003987583017890682</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>9.829259</v>
       </c>
       <c r="I5">
-        <v>0.9798567925543612</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="J5">
-        <v>0.9798567925543613</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.5610396666666666</v>
+        <v>0.6100786666666667</v>
       </c>
       <c r="N5">
-        <v>1.683119</v>
+        <v>1.830236</v>
       </c>
       <c r="O5">
-        <v>0.04888859506813144</v>
+        <v>0.06402955811028149</v>
       </c>
       <c r="P5">
-        <v>0.04888859506813144</v>
+        <v>0.06402955811028149</v>
       </c>
       <c r="Q5">
-        <v>1.838201397646778</v>
+        <v>1.998873741680445</v>
       </c>
       <c r="R5">
-        <v>16.543812578821</v>
+        <v>17.989863675124</v>
       </c>
       <c r="S5">
-        <v>0.04790382195594823</v>
+        <v>0.06152516372445037</v>
       </c>
       <c r="T5">
-        <v>0.04790382195594824</v>
+        <v>0.06152516372445037</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>9.829259</v>
       </c>
       <c r="I6">
-        <v>0.9798567925543612</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="J6">
-        <v>0.9798567925543613</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.236132333333334</v>
+        <v>7.236132333333333</v>
       </c>
       <c r="N6">
         <v>21.708397</v>
       </c>
       <c r="O6">
-        <v>0.630551393283089</v>
+        <v>0.7594534623909487</v>
       </c>
       <c r="P6">
-        <v>0.6305513932830891</v>
+        <v>0.7594534623909487</v>
       </c>
       <c r="Q6">
         <v>23.70860628753589</v>
@@ -818,10 +818,10 @@
         <v>213.377456587823</v>
       </c>
       <c r="S6">
-        <v>0.6178500657630511</v>
+        <v>0.7297488846358432</v>
       </c>
       <c r="T6">
-        <v>0.6178500657630513</v>
+        <v>0.7297488846358432</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>9.829259</v>
       </c>
       <c r="I7">
-        <v>0.9798567925543612</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="J7">
-        <v>0.9798567925543613</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.678708333333333</v>
+        <v>1.681867666666667</v>
       </c>
       <c r="N7">
-        <v>11.036125</v>
+        <v>5.045603</v>
       </c>
       <c r="O7">
-        <v>0.3205600116487795</v>
+        <v>0.1765169794987699</v>
       </c>
       <c r="P7">
-        <v>0.3205600116487795</v>
+        <v>0.1765169794987699</v>
       </c>
       <c r="Q7">
-        <v>12.05299233126389</v>
+        <v>5.510504299797445</v>
       </c>
       <c r="R7">
-        <v>108.476930981375</v>
+        <v>49.594538698177</v>
       </c>
       <c r="S7">
-        <v>0.3141029048353617</v>
+        <v>0.1696128535683802</v>
       </c>
       <c r="T7">
-        <v>0.3141029048353618</v>
+        <v>0.1696128535683802</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.04116300000000001</v>
+        <v>0.056339</v>
       </c>
       <c r="H8">
-        <v>0.123489</v>
+        <v>0.169017</v>
       </c>
       <c r="I8">
-        <v>0.01231034154820272</v>
+        <v>0.01652273294490242</v>
       </c>
       <c r="J8">
-        <v>0.01231034154820272</v>
+        <v>0.01652273294490242</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.5610396666666666</v>
+        <v>0.6100786666666667</v>
       </c>
       <c r="N8">
-        <v>1.683119</v>
+        <v>1.830236</v>
       </c>
       <c r="O8">
-        <v>0.04888859506813144</v>
+        <v>0.06402955811028149</v>
       </c>
       <c r="P8">
-        <v>0.04888859506813144</v>
+        <v>0.06402955811028149</v>
       </c>
       <c r="Q8">
-        <v>0.023094075799</v>
+        <v>0.03437122200133334</v>
       </c>
       <c r="R8">
-        <v>0.207846682191</v>
+        <v>0.309340998012</v>
       </c>
       <c r="S8">
-        <v>0.000601835303100477</v>
+        <v>0.001057943289236292</v>
       </c>
       <c r="T8">
-        <v>0.0006018353031004771</v>
+        <v>0.001057943289236292</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.04116300000000001</v>
+        <v>0.056339</v>
       </c>
       <c r="H9">
-        <v>0.123489</v>
+        <v>0.169017</v>
       </c>
       <c r="I9">
-        <v>0.01231034154820272</v>
+        <v>0.01652273294490242</v>
       </c>
       <c r="J9">
-        <v>0.01231034154820272</v>
+        <v>0.01652273294490242</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.236132333333334</v>
+        <v>7.236132333333333</v>
       </c>
       <c r="N9">
         <v>21.708397</v>
       </c>
       <c r="O9">
-        <v>0.630551393283089</v>
+        <v>0.7594534623909487</v>
       </c>
       <c r="P9">
-        <v>0.6305513932830891</v>
+        <v>0.7594534623909487</v>
       </c>
       <c r="Q9">
-        <v>0.297860915237</v>
+        <v>0.4076764595276666</v>
       </c>
       <c r="R9">
-        <v>2.680748237133001</v>
+        <v>3.669088135749</v>
       </c>
       <c r="S9">
-        <v>0.007762303015009924</v>
+        <v>0.01254824674316714</v>
       </c>
       <c r="T9">
-        <v>0.007762303015009926</v>
+        <v>0.01254824674316714</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.04116300000000001</v>
+        <v>0.056339</v>
       </c>
       <c r="H10">
-        <v>0.123489</v>
+        <v>0.169017</v>
       </c>
       <c r="I10">
-        <v>0.01231034154820272</v>
+        <v>0.01652273294490242</v>
       </c>
       <c r="J10">
-        <v>0.01231034154820272</v>
+        <v>0.01652273294490242</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.678708333333333</v>
+        <v>1.681867666666667</v>
       </c>
       <c r="N10">
-        <v>11.036125</v>
+        <v>5.045603</v>
       </c>
       <c r="O10">
-        <v>0.3205600116487795</v>
+        <v>0.1765169794987699</v>
       </c>
       <c r="P10">
-        <v>0.3205600116487795</v>
+        <v>0.1765169794987699</v>
       </c>
       <c r="Q10">
-        <v>0.151426671125</v>
+        <v>0.09475474247233333</v>
       </c>
       <c r="R10">
-        <v>1.362840040125</v>
+        <v>0.852792682251</v>
       </c>
       <c r="S10">
-        <v>0.003946203230092318</v>
+        <v>0.00291654291249899</v>
       </c>
       <c r="T10">
-        <v>0.003946203230092319</v>
+        <v>0.002916542912498991</v>
       </c>
     </row>
   </sheetData>
